--- a/S_registo_entrega/S_registo_entrega-media/S_registo_entrega.xlsx
+++ b/S_registo_entrega/S_registo_entrega-media/S_registo_entrega.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\legend\ODK Forms\legend-odk-forms\S_registo_entrega\S_registo_entrega-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269D02ED-054E-4EA1-8D67-048358F2C6AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C55056F-A0C8-45F0-82EF-171A779EEB96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1740" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -5133,7 +5133,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -31736,8 +31736,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31771,7 +31771,7 @@
         <v>74</v>
       </c>
       <c r="C2" s="32">
-        <v>201901291</v>
+        <v>201904241</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>1114</v>
